--- a/benchmarking/results_setup.xlsx
+++ b/benchmarking/results_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vignesh/Desktop/code/etl-wip/benchmarking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D3185B-CE73-224F-8938-C48BE83F40F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B695DF5-A17B-3043-A309-68DA6D7B3448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{1409B738-AC76-6149-A2D5-57F80663B72D}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
